--- a/data/pca/factorExposure/factorExposure_2015-09-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02793950946207996</v>
+        <v>0.02369450356756018</v>
       </c>
       <c r="C2">
-        <v>-0.03455737095954087</v>
+        <v>-0.04528959857788167</v>
       </c>
       <c r="D2">
-        <v>-0.1140666954566344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1291792146257162</v>
+      </c>
+      <c r="E2">
+        <v>-0.05176689602535387</v>
+      </c>
+      <c r="F2">
+        <v>0.03292184524792673</v>
+      </c>
+      <c r="G2">
+        <v>-0.05307841163849285</v>
+      </c>
+      <c r="H2">
+        <v>-0.08851860928139665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.008939058586406113</v>
+        <v>0.002963634637357286</v>
       </c>
       <c r="C3">
-        <v>-0.04726964836714694</v>
+        <v>-0.03756278326380878</v>
       </c>
       <c r="D3">
-        <v>-0.06928052651875957</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05039687116954188</v>
+      </c>
+      <c r="E3">
+        <v>-0.06674653261729591</v>
+      </c>
+      <c r="F3">
+        <v>0.05884415621268693</v>
+      </c>
+      <c r="G3">
+        <v>-0.08987393077470057</v>
+      </c>
+      <c r="H3">
+        <v>-0.1041108536580035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05250279897290992</v>
+        <v>0.04594021117812472</v>
       </c>
       <c r="C4">
-        <v>-0.06855725948265702</v>
+        <v>-0.08507756010840384</v>
       </c>
       <c r="D4">
-        <v>-0.1192900750992805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1381698881806413</v>
+      </c>
+      <c r="E4">
+        <v>-0.06212230994193115</v>
+      </c>
+      <c r="F4">
+        <v>0.05308171449014606</v>
+      </c>
+      <c r="G4">
+        <v>0.0591349221334267</v>
+      </c>
+      <c r="H4">
+        <v>-0.003686038746773575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03644972658276838</v>
+        <v>0.03583714749563249</v>
       </c>
       <c r="C6">
-        <v>-0.02727620456562248</v>
+        <v>-0.03680667160324482</v>
       </c>
       <c r="D6">
-        <v>-0.1524708351888523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1403429188203442</v>
+      </c>
+      <c r="E6">
+        <v>-0.01549467776473611</v>
+      </c>
+      <c r="F6">
+        <v>0.04892165808122323</v>
+      </c>
+      <c r="G6">
+        <v>0.01886668554744909</v>
+      </c>
+      <c r="H6">
+        <v>-0.05134177507958128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02158086249814626</v>
+        <v>0.0176150896148034</v>
       </c>
       <c r="C7">
-        <v>-0.03056437337513809</v>
+        <v>-0.03866105727987749</v>
       </c>
       <c r="D7">
-        <v>-0.1058107723765884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09688154969187118</v>
+      </c>
+      <c r="E7">
+        <v>-0.002222988603757152</v>
+      </c>
+      <c r="F7">
+        <v>0.02976594687973431</v>
+      </c>
+      <c r="G7">
+        <v>0.001056282183812604</v>
+      </c>
+      <c r="H7">
+        <v>-0.0694467171346741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01165133458024844</v>
+        <v>0.006733130821647578</v>
       </c>
       <c r="C8">
-        <v>-0.03496105718057051</v>
+        <v>-0.04018699617457592</v>
       </c>
       <c r="D8">
-        <v>-0.0603367112565441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07386969709827299</v>
+      </c>
+      <c r="E8">
+        <v>-0.02949556104362578</v>
+      </c>
+      <c r="F8">
+        <v>0.07341094443399335</v>
+      </c>
+      <c r="G8">
+        <v>-0.03213071702524926</v>
+      </c>
+      <c r="H8">
+        <v>-0.05489668989610593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04288337122535985</v>
+        <v>0.03618818671116358</v>
       </c>
       <c r="C9">
-        <v>-0.0605678122955742</v>
+        <v>-0.07438811207285029</v>
       </c>
       <c r="D9">
-        <v>-0.1082646686969091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1167903488619493</v>
+      </c>
+      <c r="E9">
+        <v>-0.04550242058484863</v>
+      </c>
+      <c r="F9">
+        <v>0.03323078763605206</v>
+      </c>
+      <c r="G9">
+        <v>0.03985355819375068</v>
+      </c>
+      <c r="H9">
+        <v>-0.006062986054308415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1297831024315678</v>
+        <v>0.1729702086810057</v>
       </c>
       <c r="C10">
-        <v>0.1835125496665195</v>
+        <v>0.1698464586946007</v>
       </c>
       <c r="D10">
-        <v>0.003473288975297046</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004339923129259467</v>
+      </c>
+      <c r="E10">
+        <v>-0.03335549902100458</v>
+      </c>
+      <c r="F10">
+        <v>0.04115019953511595</v>
+      </c>
+      <c r="G10">
+        <v>-0.0005776357519832807</v>
+      </c>
+      <c r="H10">
+        <v>0.0458545024006862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03420759606820103</v>
+        <v>0.02861762913601241</v>
       </c>
       <c r="C11">
-        <v>-0.04394428568359632</v>
+        <v>-0.0521582882814179</v>
       </c>
       <c r="D11">
-        <v>-0.0574278476904397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05298728003964513</v>
+      </c>
+      <c r="E11">
+        <v>0.01256388124919818</v>
+      </c>
+      <c r="F11">
+        <v>-0.005898302347781854</v>
+      </c>
+      <c r="G11">
+        <v>-0.0005136149385211447</v>
+      </c>
+      <c r="H11">
+        <v>-0.03431716652318367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03791378592544241</v>
+        <v>0.03091753545938162</v>
       </c>
       <c r="C12">
-        <v>-0.04628030245251032</v>
+        <v>-0.05335236152163213</v>
       </c>
       <c r="D12">
-        <v>-0.05846445319740684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05172710216241908</v>
+      </c>
+      <c r="E12">
+        <v>0.001144152098722574</v>
+      </c>
+      <c r="F12">
+        <v>-0.0105007636151046</v>
+      </c>
+      <c r="G12">
+        <v>0.0004914537359231296</v>
+      </c>
+      <c r="H12">
+        <v>-0.03786195507897687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01194287922493109</v>
+        <v>0.015247344460655</v>
       </c>
       <c r="C13">
-        <v>-0.03775781204630359</v>
+        <v>-0.04678617442490383</v>
       </c>
       <c r="D13">
-        <v>-0.1358136845542073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1542943373894476</v>
+      </c>
+      <c r="E13">
+        <v>-0.02276769522014905</v>
+      </c>
+      <c r="F13">
+        <v>0.07260677885704063</v>
+      </c>
+      <c r="G13">
+        <v>-0.0165064524416006</v>
+      </c>
+      <c r="H13">
+        <v>-0.05821786633940092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005928413989527491</v>
+        <v>0.007026991113600538</v>
       </c>
       <c r="C14">
-        <v>-0.02359748490325898</v>
+        <v>-0.02830973160321713</v>
       </c>
       <c r="D14">
-        <v>-0.09687097184657809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09955630309623392</v>
+      </c>
+      <c r="E14">
+        <v>-0.02532821650482913</v>
+      </c>
+      <c r="F14">
+        <v>0.02744043634100191</v>
+      </c>
+      <c r="G14">
+        <v>0.004253718828535401</v>
+      </c>
+      <c r="H14">
+        <v>-0.08943789020382958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002882502300449286</v>
+        <v>0.001487419100147453</v>
       </c>
       <c r="C15">
-        <v>-0.005221766689493874</v>
+        <v>-0.01414199438056439</v>
       </c>
       <c r="D15">
-        <v>-0.009357096899396782</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03759840172347246</v>
+      </c>
+      <c r="E15">
+        <v>-0.01011898621037125</v>
+      </c>
+      <c r="F15">
+        <v>0.007779166393267203</v>
+      </c>
+      <c r="G15">
+        <v>-0.001159292732889572</v>
+      </c>
+      <c r="H15">
+        <v>-0.02111577887824881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03171920068245415</v>
+        <v>0.02703282448284448</v>
       </c>
       <c r="C16">
-        <v>-0.04502903425973049</v>
+        <v>-0.05097902834728784</v>
       </c>
       <c r="D16">
-        <v>-0.06509947073175357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05814985818466364</v>
+      </c>
+      <c r="E16">
+        <v>-0.006491459854469201</v>
+      </c>
+      <c r="F16">
+        <v>0.001535924162102659</v>
+      </c>
+      <c r="G16">
+        <v>0.006598485989702067</v>
+      </c>
+      <c r="H16">
+        <v>-0.04873857087684062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0111839993183175</v>
+        <v>0.00677738902124579</v>
       </c>
       <c r="C19">
-        <v>-0.03537730693878941</v>
+        <v>-0.03081032311952615</v>
       </c>
       <c r="D19">
-        <v>-0.1407815481014488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1092191058136436</v>
+      </c>
+      <c r="E19">
+        <v>-0.05997302328427073</v>
+      </c>
+      <c r="F19">
+        <v>0.01672003667599312</v>
+      </c>
+      <c r="G19">
+        <v>-0.01349430753814387</v>
+      </c>
+      <c r="H19">
+        <v>-0.05270126620467187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01621694105214221</v>
+        <v>0.01571282787149446</v>
       </c>
       <c r="C20">
-        <v>-0.03426712890087075</v>
+        <v>-0.04044567233838688</v>
       </c>
       <c r="D20">
-        <v>-0.08969458062704662</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1029372026004617</v>
+      </c>
+      <c r="E20">
+        <v>-0.04602306377102411</v>
+      </c>
+      <c r="F20">
+        <v>0.02694869209908515</v>
+      </c>
+      <c r="G20">
+        <v>0.01428604892084976</v>
+      </c>
+      <c r="H20">
+        <v>-0.05059301989327142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01050138314996686</v>
+        <v>0.008374067812195957</v>
       </c>
       <c r="C21">
-        <v>-0.0373178402320123</v>
+        <v>-0.04392460638077491</v>
       </c>
       <c r="D21">
-        <v>-0.1414089956341633</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1422791922908761</v>
+      </c>
+      <c r="E21">
+        <v>-0.08113257026142974</v>
+      </c>
+      <c r="F21">
+        <v>0.06423105237158006</v>
+      </c>
+      <c r="G21">
+        <v>0.02084459211588496</v>
+      </c>
+      <c r="H21">
+        <v>-0.07631719836770888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0009146871952960256</v>
+        <v>0.007917413119803146</v>
       </c>
       <c r="C22">
-        <v>-0.04834901415336654</v>
+        <v>-0.04975988420492961</v>
       </c>
       <c r="D22">
-        <v>-0.1206261779052698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1753943817369435</v>
+      </c>
+      <c r="E22">
+        <v>-0.02077074327404116</v>
+      </c>
+      <c r="F22">
+        <v>0.1265006869054174</v>
+      </c>
+      <c r="G22">
+        <v>-0.1130106908906961</v>
+      </c>
+      <c r="H22">
+        <v>0.005994689338304369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001078445511688595</v>
+        <v>0.008049916958321635</v>
       </c>
       <c r="C23">
-        <v>-0.04866176987045595</v>
+        <v>-0.05026929258319324</v>
       </c>
       <c r="D23">
-        <v>-0.1200685842364154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.174566756031346</v>
+      </c>
+      <c r="E23">
+        <v>-0.02101666238019915</v>
+      </c>
+      <c r="F23">
+        <v>0.1266247827647901</v>
+      </c>
+      <c r="G23">
+        <v>-0.1123075889113904</v>
+      </c>
+      <c r="H23">
+        <v>0.006579957997394139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0375702881451486</v>
+        <v>0.02957276985285475</v>
       </c>
       <c r="C24">
-        <v>-0.05780177339154229</v>
+        <v>-0.06407032123881082</v>
       </c>
       <c r="D24">
-        <v>-0.06319169846498854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05771424282702737</v>
+      </c>
+      <c r="E24">
+        <v>-0.004688220055642507</v>
+      </c>
+      <c r="F24">
+        <v>-0.000337135886355099</v>
+      </c>
+      <c r="G24">
+        <v>0.01563309428412509</v>
+      </c>
+      <c r="H24">
+        <v>-0.05716222550831586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04208887915485181</v>
+        <v>0.03431181570591032</v>
       </c>
       <c r="C25">
-        <v>-0.05313566539367413</v>
+        <v>-0.06044305110299539</v>
       </c>
       <c r="D25">
-        <v>-0.06231245807586736</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05659488931536764</v>
+      </c>
+      <c r="E25">
+        <v>-0.009166171269329094</v>
+      </c>
+      <c r="F25">
+        <v>0.002395254348160901</v>
+      </c>
+      <c r="G25">
+        <v>0.0004950794907438134</v>
+      </c>
+      <c r="H25">
+        <v>-0.02954524472945516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01386384689108218</v>
+        <v>0.01404286721636403</v>
       </c>
       <c r="C26">
-        <v>-0.0137376470662359</v>
+        <v>-0.02223949459937349</v>
       </c>
       <c r="D26">
-        <v>-0.06412228104500294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06914944519056461</v>
+      </c>
+      <c r="E26">
+        <v>-0.02063501969255835</v>
+      </c>
+      <c r="F26">
+        <v>0.03076733087325028</v>
+      </c>
+      <c r="G26">
+        <v>0.006423617900185902</v>
+      </c>
+      <c r="H26">
+        <v>-0.05585494989180845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1946643568119608</v>
+        <v>0.2513166330006987</v>
       </c>
       <c r="C28">
-        <v>0.2482957025283357</v>
+        <v>0.2245962585041675</v>
       </c>
       <c r="D28">
-        <v>0.01698331339431833</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01255480871724417</v>
+      </c>
+      <c r="E28">
+        <v>-0.05708946792643148</v>
+      </c>
+      <c r="F28">
+        <v>0.02799243333895986</v>
+      </c>
+      <c r="G28">
+        <v>0.02100800868011315</v>
+      </c>
+      <c r="H28">
+        <v>0.06487026758461337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003714107903874625</v>
+        <v>0.004972415458728133</v>
       </c>
       <c r="C29">
-        <v>-0.02215807704425305</v>
+        <v>-0.02731540909387654</v>
       </c>
       <c r="D29">
-        <v>-0.08728005928024583</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09632911359544399</v>
+      </c>
+      <c r="E29">
+        <v>-0.01320028107648654</v>
+      </c>
+      <c r="F29">
+        <v>0.04589152584213332</v>
+      </c>
+      <c r="G29">
+        <v>0.01204646593450124</v>
+      </c>
+      <c r="H29">
+        <v>-0.08575892746141021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03471199914359579</v>
+        <v>0.0356904139516871</v>
       </c>
       <c r="C30">
-        <v>-0.06393725021026966</v>
+        <v>-0.07605234438990904</v>
       </c>
       <c r="D30">
-        <v>-0.1563094749556875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1648421958136068</v>
+      </c>
+      <c r="E30">
+        <v>-0.01801365818191227</v>
+      </c>
+      <c r="F30">
+        <v>0.03910453997679039</v>
+      </c>
+      <c r="G30">
+        <v>0.02497916583185483</v>
+      </c>
+      <c r="H30">
+        <v>-0.06207621492122407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06035199259968483</v>
+        <v>0.04528609176653077</v>
       </c>
       <c r="C31">
-        <v>-0.07505011225472313</v>
+        <v>-0.08453964752653033</v>
       </c>
       <c r="D31">
-        <v>-0.05814448104289844</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04523995308643423</v>
+      </c>
+      <c r="E31">
+        <v>-0.01924854393224987</v>
+      </c>
+      <c r="F31">
+        <v>0.04033737239610091</v>
+      </c>
+      <c r="G31">
+        <v>-0.00439515428059998</v>
+      </c>
+      <c r="H31">
+        <v>-0.02462018068350195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02296196017225608</v>
+        <v>0.02233922326643226</v>
       </c>
       <c r="C32">
-        <v>-0.0222774053722711</v>
+        <v>-0.02837762331308761</v>
       </c>
       <c r="D32">
-        <v>-0.09070042867476169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1154072420898303</v>
+      </c>
+      <c r="E32">
+        <v>-0.0529138971039227</v>
+      </c>
+      <c r="F32">
+        <v>0.06262207636669379</v>
+      </c>
+      <c r="G32">
+        <v>0.003189845055610695</v>
+      </c>
+      <c r="H32">
+        <v>-0.03208937628436241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02393725410592812</v>
+        <v>0.02323324339845098</v>
       </c>
       <c r="C33">
-        <v>-0.0437272743556086</v>
+        <v>-0.05259366885656849</v>
       </c>
       <c r="D33">
-        <v>-0.1371030208387404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1327567423583863</v>
+      </c>
+      <c r="E33">
+        <v>-0.03919664388532933</v>
+      </c>
+      <c r="F33">
+        <v>0.03646049987173268</v>
+      </c>
+      <c r="G33">
+        <v>0.008785653154889394</v>
+      </c>
+      <c r="H33">
+        <v>-0.05723854974091045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03533504616090223</v>
+        <v>0.02658077811716577</v>
       </c>
       <c r="C34">
-        <v>-0.06509529136450144</v>
+        <v>-0.06667966590048913</v>
       </c>
       <c r="D34">
-        <v>-0.06298191777648458</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04822889176734253</v>
+      </c>
+      <c r="E34">
+        <v>0.0110875829716096</v>
+      </c>
+      <c r="F34">
+        <v>-0.0166237165216455</v>
+      </c>
+      <c r="G34">
+        <v>-0.005514602775044506</v>
+      </c>
+      <c r="H34">
+        <v>-0.05384063739298654</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001030547882042611</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.001870817422925886</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.00885770496733696</v>
+      </c>
+      <c r="E35">
+        <v>-5.26183244763556e-05</v>
+      </c>
+      <c r="F35">
+        <v>0.001864369420174762</v>
+      </c>
+      <c r="G35">
+        <v>-7.051269568918546e-06</v>
+      </c>
+      <c r="H35">
+        <v>-0.003867416720804511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01971420480526176</v>
+        <v>0.01920268064793824</v>
       </c>
       <c r="C36">
-        <v>-0.008854464697984532</v>
+        <v>-0.01924617315218525</v>
       </c>
       <c r="D36">
-        <v>-0.08756161750846712</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08228741139719771</v>
+      </c>
+      <c r="E36">
+        <v>-0.02639769803054392</v>
+      </c>
+      <c r="F36">
+        <v>0.02318303323060528</v>
+      </c>
+      <c r="G36">
+        <v>0.0222067517371694</v>
+      </c>
+      <c r="H36">
+        <v>-0.04220829341707022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01753969217678964</v>
+        <v>0.02161406820705459</v>
       </c>
       <c r="C38">
-        <v>-0.01584998214814724</v>
+        <v>-0.0204353830384971</v>
       </c>
       <c r="D38">
-        <v>-0.07647502440493549</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07620076330267327</v>
+      </c>
+      <c r="E38">
+        <v>-0.03809947638598678</v>
+      </c>
+      <c r="F38">
+        <v>-0.009207657915618206</v>
+      </c>
+      <c r="G38">
+        <v>-0.01121204681737783</v>
+      </c>
+      <c r="H38">
+        <v>-0.04270434452567957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03893674635955278</v>
+        <v>0.03150582676933886</v>
       </c>
       <c r="C39">
-        <v>-0.06156412081278476</v>
+        <v>-0.075715942472918</v>
       </c>
       <c r="D39">
-        <v>-0.09986667120685183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1041297036592658</v>
+      </c>
+      <c r="E39">
+        <v>-0.004707301918658273</v>
+      </c>
+      <c r="F39">
+        <v>-0.01011475435254677</v>
+      </c>
+      <c r="G39">
+        <v>0.02978587864067911</v>
+      </c>
+      <c r="H39">
+        <v>-0.0896802489542924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01728138782895609</v>
+        <v>0.01374187432393239</v>
       </c>
       <c r="C40">
-        <v>-0.04174471155192729</v>
+        <v>-0.0401280440819709</v>
       </c>
       <c r="D40">
-        <v>-0.08402415676582463</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08930021545119295</v>
+      </c>
+      <c r="E40">
+        <v>-0.04194151024214898</v>
+      </c>
+      <c r="F40">
+        <v>0.1082364192732808</v>
+      </c>
+      <c r="G40">
+        <v>-0.114649797353286</v>
+      </c>
+      <c r="H40">
+        <v>-0.1622861590268608</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03021170929674492</v>
+        <v>0.02735750824244058</v>
       </c>
       <c r="C41">
-        <v>-0.006126497598827035</v>
+        <v>-0.01495155637118288</v>
       </c>
       <c r="D41">
-        <v>-0.0634676739369065</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.04665842292769191</v>
+      </c>
+      <c r="E41">
+        <v>-0.05016448240885213</v>
+      </c>
+      <c r="F41">
+        <v>0.01401135691421428</v>
+      </c>
+      <c r="G41">
+        <v>-0.01173348614656504</v>
+      </c>
+      <c r="H41">
+        <v>-0.04961798423230737</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02630327730363033</v>
+        <v>0.02188391296635202</v>
       </c>
       <c r="C43">
-        <v>-0.01600400625872794</v>
+        <v>-0.02251139945758871</v>
       </c>
       <c r="D43">
-        <v>-0.1000576664375392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.07712594960673069</v>
+      </c>
+      <c r="E43">
+        <v>-0.03019424428701224</v>
+      </c>
+      <c r="F43">
+        <v>0.008635154104730102</v>
+      </c>
+      <c r="G43">
+        <v>-0.003454686141921979</v>
+      </c>
+      <c r="H43">
+        <v>-0.05878663028765074</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01581606695929726</v>
+        <v>0.01751097263676124</v>
       </c>
       <c r="C44">
-        <v>-0.04131066901345972</v>
+        <v>-0.04434901897611936</v>
       </c>
       <c r="D44">
-        <v>-0.08898258465552486</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1056952426759093</v>
+      </c>
+      <c r="E44">
+        <v>-0.04032772388038435</v>
+      </c>
+      <c r="F44">
+        <v>0.0279856689029298</v>
+      </c>
+      <c r="G44">
+        <v>0.009050434376940166</v>
+      </c>
+      <c r="H44">
+        <v>-0.04236974291760065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01538548634050667</v>
+        <v>0.01152897871453697</v>
       </c>
       <c r="C46">
-        <v>-0.02650066603142194</v>
+        <v>-0.03555107957289262</v>
       </c>
       <c r="D46">
-        <v>-0.09068365115412823</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09110592385805902</v>
+      </c>
+      <c r="E46">
+        <v>-0.02742029778945481</v>
+      </c>
+      <c r="F46">
+        <v>0.02373155382528994</v>
+      </c>
+      <c r="G46">
+        <v>0.02234306786860511</v>
+      </c>
+      <c r="H46">
+        <v>-0.08564404212627977</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09099541004210109</v>
+        <v>0.07265854316317713</v>
       </c>
       <c r="C47">
-        <v>-0.08932783593550693</v>
+        <v>-0.1035068452103117</v>
       </c>
       <c r="D47">
-        <v>-0.025177735765198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02236389705663742</v>
+      </c>
+      <c r="E47">
+        <v>-0.02817762677790461</v>
+      </c>
+      <c r="F47">
+        <v>0.02640645500011837</v>
+      </c>
+      <c r="G47">
+        <v>-0.01877792501400248</v>
+      </c>
+      <c r="H47">
+        <v>0.04065304653807655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01255269450620698</v>
+        <v>0.01402424736713164</v>
       </c>
       <c r="C48">
-        <v>-0.02066026089090293</v>
+        <v>-0.02563138429160744</v>
       </c>
       <c r="D48">
-        <v>-0.07292346635539694</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07693084991983307</v>
+      </c>
+      <c r="E48">
+        <v>-0.05631116038611712</v>
+      </c>
+      <c r="F48">
+        <v>0.03093887987036936</v>
+      </c>
+      <c r="G48">
+        <v>0.02174907256793489</v>
+      </c>
+      <c r="H48">
+        <v>-0.05951417016495062</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05233973176672329</v>
+        <v>0.03999399995334462</v>
       </c>
       <c r="C50">
-        <v>-0.06237255958018691</v>
+        <v>-0.07317403346564207</v>
       </c>
       <c r="D50">
-        <v>-0.05449498111424623</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.04958195633322498</v>
+      </c>
+      <c r="E50">
+        <v>-0.02737443963204108</v>
+      </c>
+      <c r="F50">
+        <v>0.04388044307082296</v>
+      </c>
+      <c r="G50">
+        <v>-0.03343993025635803</v>
+      </c>
+      <c r="H50">
+        <v>-0.02406877355997218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01529740878039743</v>
+        <v>0.0125832171035747</v>
       </c>
       <c r="C51">
-        <v>-0.01569014376708783</v>
+        <v>-0.02415714900368689</v>
       </c>
       <c r="D51">
-        <v>-0.08943968782573408</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09423642235416416</v>
+      </c>
+      <c r="E51">
+        <v>0.001394854216940581</v>
+      </c>
+      <c r="F51">
+        <v>0.01034991444062032</v>
+      </c>
+      <c r="G51">
+        <v>0.02331185606324999</v>
+      </c>
+      <c r="H51">
+        <v>-0.06759168601495835</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1044376309618308</v>
+        <v>0.09095052286390018</v>
       </c>
       <c r="C53">
-        <v>-0.1063432510367593</v>
+        <v>-0.1216494285351246</v>
       </c>
       <c r="D53">
-        <v>0.02277200135500959</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01729866320001454</v>
+      </c>
+      <c r="E53">
+        <v>-0.07328035462819985</v>
+      </c>
+      <c r="F53">
+        <v>0.08077118347243395</v>
+      </c>
+      <c r="G53">
+        <v>0.01232261551849453</v>
+      </c>
+      <c r="H53">
+        <v>0.01196049806796485</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.021783660779892</v>
+        <v>0.02053493390102553</v>
       </c>
       <c r="C54">
-        <v>-0.02959971337516706</v>
+        <v>-0.03770736220471081</v>
       </c>
       <c r="D54">
-        <v>-0.1026771882687861</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09434030679903355</v>
+      </c>
+      <c r="E54">
+        <v>-0.03746520914827132</v>
+      </c>
+      <c r="F54">
+        <v>0.01891273310315733</v>
+      </c>
+      <c r="G54">
+        <v>-0.01387956864160315</v>
+      </c>
+      <c r="H54">
+        <v>-0.07886539472125025</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09617083642105916</v>
+        <v>0.08143014007987168</v>
       </c>
       <c r="C55">
-        <v>-0.08132228348981545</v>
+        <v>-0.09800982543780998</v>
       </c>
       <c r="D55">
-        <v>0.03344878986740792</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02780565064591061</v>
+      </c>
+      <c r="E55">
+        <v>-0.02717293063147409</v>
+      </c>
+      <c r="F55">
+        <v>0.0646446814148903</v>
+      </c>
+      <c r="G55">
+        <v>-0.01671303923931567</v>
+      </c>
+      <c r="H55">
+        <v>0.003876353372353352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1357703408647298</v>
+        <v>0.1152108678186408</v>
       </c>
       <c r="C56">
-        <v>-0.1154330328707011</v>
+        <v>-0.1448210061012059</v>
       </c>
       <c r="D56">
-        <v>0.0289768604179613</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02910057129918999</v>
+      </c>
+      <c r="E56">
+        <v>-0.04658261129578089</v>
+      </c>
+      <c r="F56">
+        <v>0.05499153636084403</v>
+      </c>
+      <c r="G56">
+        <v>-0.02920138137131669</v>
+      </c>
+      <c r="H56">
+        <v>0.02610650679443893</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.008872010543442943</v>
+        <v>0.01561212257498564</v>
       </c>
       <c r="C58">
-        <v>-0.0369041205694709</v>
+        <v>-0.0554509496080848</v>
       </c>
       <c r="D58">
-        <v>-0.2387429835381784</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.288825425807191</v>
+      </c>
+      <c r="E58">
+        <v>-0.09501496792098889</v>
+      </c>
+      <c r="F58">
+        <v>0.1251023851764617</v>
+      </c>
+      <c r="G58">
+        <v>-0.08710448921402227</v>
+      </c>
+      <c r="H58">
+        <v>0.03735775675177896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1550781481349948</v>
+        <v>0.1956178566306267</v>
       </c>
       <c r="C59">
-        <v>0.1673230217543058</v>
+        <v>0.1426481820114409</v>
       </c>
       <c r="D59">
-        <v>-0.04959688289997507</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06379253553905052</v>
+      </c>
+      <c r="E59">
+        <v>-0.04624472041399801</v>
+      </c>
+      <c r="F59">
+        <v>-0.01849671741126535</v>
+      </c>
+      <c r="G59">
+        <v>0.005867494276051597</v>
+      </c>
+      <c r="H59">
+        <v>0.02432804781139376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.233422337416741</v>
+        <v>0.2125414305055378</v>
       </c>
       <c r="C60">
-        <v>-0.08386973020555011</v>
+        <v>-0.1260159498921296</v>
       </c>
       <c r="D60">
-        <v>-0.1875481317884159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.130029800317263</v>
+      </c>
+      <c r="E60">
+        <v>0.3241728062125481</v>
+      </c>
+      <c r="F60">
+        <v>-0.1100535151717139</v>
+      </c>
+      <c r="G60">
+        <v>0.01196393448103617</v>
+      </c>
+      <c r="H60">
+        <v>0.1861232629254705</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04450494172659956</v>
+        <v>0.03603575021017068</v>
       </c>
       <c r="C61">
-        <v>-0.05700106208683512</v>
+        <v>-0.06864877513226916</v>
       </c>
       <c r="D61">
-        <v>-0.1090676463439138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09437934659847598</v>
+      </c>
+      <c r="E61">
+        <v>0.0004722788324698576</v>
+      </c>
+      <c r="F61">
+        <v>-0.007679087401943294</v>
+      </c>
+      <c r="G61">
+        <v>0.01686988525589882</v>
+      </c>
+      <c r="H61">
+        <v>-0.04959474390335736</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0160065662772629</v>
+        <v>0.01407386396468121</v>
       </c>
       <c r="C63">
-        <v>-0.02430750703817671</v>
+        <v>-0.03539916892313059</v>
       </c>
       <c r="D63">
-        <v>-0.08125947741758216</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07628036841638329</v>
+      </c>
+      <c r="E63">
+        <v>-0.008644402858067547</v>
+      </c>
+      <c r="F63">
+        <v>0.0228323770353894</v>
+      </c>
+      <c r="G63">
+        <v>0.01612223237201339</v>
+      </c>
+      <c r="H63">
+        <v>-0.04931642516498692</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05708903989819358</v>
+        <v>0.04484641935609451</v>
       </c>
       <c r="C64">
-        <v>-0.07819787467809756</v>
+        <v>-0.08455203660366979</v>
       </c>
       <c r="D64">
-        <v>-0.04804776743386954</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0504404693939579</v>
+      </c>
+      <c r="E64">
+        <v>-0.01841249127159042</v>
+      </c>
+      <c r="F64">
+        <v>0.0001327352201494128</v>
+      </c>
+      <c r="G64">
+        <v>0.0930935609846314</v>
+      </c>
+      <c r="H64">
+        <v>-0.04282423737280255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03714623056051988</v>
+        <v>0.03472890394664749</v>
       </c>
       <c r="C65">
-        <v>-0.02394424572774408</v>
+        <v>-0.03574615116064773</v>
       </c>
       <c r="D65">
-        <v>-0.1217628328286865</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1124160742747634</v>
+      </c>
+      <c r="E65">
+        <v>0.003669613722649517</v>
+      </c>
+      <c r="F65">
+        <v>0.02535633735837871</v>
+      </c>
+      <c r="G65">
+        <v>-0.003194264625961379</v>
+      </c>
+      <c r="H65">
+        <v>-0.02348131455831704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04265655119291326</v>
+        <v>0.0353077513061367</v>
       </c>
       <c r="C66">
-        <v>-0.06865310716940279</v>
+        <v>-0.08630092103243854</v>
       </c>
       <c r="D66">
-        <v>-0.1138836092500503</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1277166713440942</v>
+      </c>
+      <c r="E66">
+        <v>-0.009768843756655118</v>
+      </c>
+      <c r="F66">
+        <v>-0.001248702380487387</v>
+      </c>
+      <c r="G66">
+        <v>0.0046245720564607</v>
+      </c>
+      <c r="H66">
+        <v>-0.05631876699577777</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03850215146588934</v>
+        <v>0.0374102309711114</v>
       </c>
       <c r="C67">
-        <v>-0.02224299947251234</v>
+        <v>-0.02894654994682126</v>
       </c>
       <c r="D67">
-        <v>-0.04174388386853693</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03264056291040379</v>
+      </c>
+      <c r="E67">
+        <v>-0.01167101183304281</v>
+      </c>
+      <c r="F67">
+        <v>-0.02398253612179483</v>
+      </c>
+      <c r="G67">
+        <v>-0.01155837090391606</v>
+      </c>
+      <c r="H67">
+        <v>-0.04492565230300496</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1897623400963108</v>
+        <v>0.22752393758731</v>
       </c>
       <c r="C68">
-        <v>0.2019384560071175</v>
+        <v>0.16745883263082</v>
       </c>
       <c r="D68">
-        <v>-0.01742179181363378</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02459819416011106</v>
+      </c>
+      <c r="E68">
+        <v>-0.01643232114360294</v>
+      </c>
+      <c r="F68">
+        <v>0.03988323098867715</v>
+      </c>
+      <c r="G68">
+        <v>-0.02691649944897711</v>
+      </c>
+      <c r="H68">
+        <v>0.0004672966337455621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08503685385619202</v>
+        <v>0.06549441791675617</v>
       </c>
       <c r="C69">
-        <v>-0.1047696262176371</v>
+        <v>-0.1105116002825899</v>
       </c>
       <c r="D69">
-        <v>-0.05565292150355409</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.03685216617301638</v>
+      </c>
+      <c r="E69">
+        <v>-0.01586879514903932</v>
+      </c>
+      <c r="F69">
+        <v>0.01310458643289634</v>
+      </c>
+      <c r="G69">
+        <v>-0.01413507275873324</v>
+      </c>
+      <c r="H69">
+        <v>0.007895870654050703</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1749107882873607</v>
+        <v>0.2138167778752242</v>
       </c>
       <c r="C71">
-        <v>0.2061754562735394</v>
+        <v>0.1750180125343827</v>
       </c>
       <c r="D71">
-        <v>-0.0156757869262622</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02646932622093942</v>
+      </c>
+      <c r="E71">
+        <v>-0.03759566348358463</v>
+      </c>
+      <c r="F71">
+        <v>0.06360977429936733</v>
+      </c>
+      <c r="G71">
+        <v>-0.04363473014562831</v>
+      </c>
+      <c r="H71">
+        <v>0.004481419508984602</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1104189382747252</v>
+        <v>0.09658256985026593</v>
       </c>
       <c r="C72">
-        <v>-0.06478676185801437</v>
+        <v>-0.09108293349646777</v>
       </c>
       <c r="D72">
-        <v>-0.08442500757898372</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08316593899879032</v>
+      </c>
+      <c r="E72">
+        <v>0.06354853735771844</v>
+      </c>
+      <c r="F72">
+        <v>0.03362255148816681</v>
+      </c>
+      <c r="G72">
+        <v>0.01824783876755714</v>
+      </c>
+      <c r="H72">
+        <v>-0.02425786456918007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2267718312966701</v>
+        <v>0.2028534998656245</v>
       </c>
       <c r="C73">
-        <v>-0.0480145192146505</v>
+        <v>-0.1068428407694063</v>
       </c>
       <c r="D73">
-        <v>-0.3211301762300894</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1946122148535654</v>
+      </c>
+      <c r="E73">
+        <v>0.5807868394952008</v>
+      </c>
+      <c r="F73">
+        <v>-0.1797111950333483</v>
+      </c>
+      <c r="G73">
+        <v>0.03988267944629741</v>
+      </c>
+      <c r="H73">
+        <v>0.2358212100865151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1102589644104071</v>
+        <v>0.09130581831941531</v>
       </c>
       <c r="C74">
-        <v>-0.0860948934660424</v>
+        <v>-0.1067014000308178</v>
       </c>
       <c r="D74">
-        <v>0.03768743609381647</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03849686512422493</v>
+      </c>
+      <c r="E74">
+        <v>-0.02500101191530169</v>
+      </c>
+      <c r="F74">
+        <v>0.0736134746892347</v>
+      </c>
+      <c r="G74">
+        <v>0.01224753983302932</v>
+      </c>
+      <c r="H74">
+        <v>0.04187952567935801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2523236962085963</v>
+        <v>0.2122586567697543</v>
       </c>
       <c r="C75">
-        <v>-0.1608083982534494</v>
+        <v>-0.2001264036199772</v>
       </c>
       <c r="D75">
-        <v>0.135282790508839</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.150907229646784</v>
+      </c>
+      <c r="E75">
+        <v>-0.07690078707656864</v>
+      </c>
+      <c r="F75">
+        <v>0.02056943863821575</v>
+      </c>
+      <c r="G75">
+        <v>-0.06242711706513131</v>
+      </c>
+      <c r="H75">
+        <v>0.04720786536307641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1459543076911024</v>
+        <v>0.120527001189028</v>
       </c>
       <c r="C76">
-        <v>-0.1127539320231976</v>
+        <v>-0.1367903628970826</v>
       </c>
       <c r="D76">
-        <v>0.03928081675110857</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04184100511595087</v>
+      </c>
+      <c r="E76">
+        <v>-0.07677457905287442</v>
+      </c>
+      <c r="F76">
+        <v>0.03687556812092218</v>
+      </c>
+      <c r="G76">
+        <v>-0.001480121314447179</v>
+      </c>
+      <c r="H76">
+        <v>-0.03546967075464182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04208067300641909</v>
+        <v>0.04606825447011933</v>
       </c>
       <c r="C77">
-        <v>-0.07086575045146631</v>
+        <v>-0.08303150584470061</v>
       </c>
       <c r="D77">
-        <v>-0.02546546653642721</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1257814830931339</v>
+      </c>
+      <c r="E77">
+        <v>-0.4789097363512943</v>
+      </c>
+      <c r="F77">
+        <v>-0.3382889043895652</v>
+      </c>
+      <c r="G77">
+        <v>-0.3776693641962652</v>
+      </c>
+      <c r="H77">
+        <v>0.604018903312992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04408223054452944</v>
+        <v>0.04252345223180798</v>
       </c>
       <c r="C78">
-        <v>-0.06239202875904598</v>
+        <v>-0.07352669546707592</v>
       </c>
       <c r="D78">
-        <v>-0.13387308047331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1384951590782258</v>
+      </c>
+      <c r="E78">
+        <v>-0.01454331277131727</v>
+      </c>
+      <c r="F78">
+        <v>0.04283509115906121</v>
+      </c>
+      <c r="G78">
+        <v>0.002233675070639553</v>
+      </c>
+      <c r="H78">
+        <v>0.01828474583866372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0537159823107711</v>
+        <v>0.05002538861950542</v>
       </c>
       <c r="C79">
-        <v>-0.1034945097516567</v>
+        <v>-0.1137821522432993</v>
       </c>
       <c r="D79">
-        <v>0.1526536717476617</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08226153164983176</v>
+      </c>
+      <c r="E79">
+        <v>-0.1758765936874821</v>
+      </c>
+      <c r="F79">
+        <v>0.4025783025062206</v>
+      </c>
+      <c r="G79">
+        <v>0.6806716925063356</v>
+      </c>
+      <c r="H79">
+        <v>0.4008896579334078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02014131805118619</v>
+        <v>0.01781858069025333</v>
       </c>
       <c r="C80">
-        <v>-0.04874170369595279</v>
+        <v>-0.04971068736612217</v>
       </c>
       <c r="D80">
-        <v>-0.01913408817678791</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01804277235950409</v>
+      </c>
+      <c r="E80">
+        <v>-0.01261768155981608</v>
+      </c>
+      <c r="F80">
+        <v>0.01502224245396626</v>
+      </c>
+      <c r="G80">
+        <v>-0.002690899735514727</v>
+      </c>
+      <c r="H80">
+        <v>-0.07558832193185124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1326925857634496</v>
+        <v>0.1052985341400318</v>
       </c>
       <c r="C81">
-        <v>-0.1177231188778261</v>
+        <v>-0.136928424027321</v>
       </c>
       <c r="D81">
-        <v>0.1059270389836299</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1036461179885064</v>
+      </c>
+      <c r="E81">
+        <v>-0.09164289603450296</v>
+      </c>
+      <c r="F81">
+        <v>0.06387237625206403</v>
+      </c>
+      <c r="G81">
+        <v>-0.01029774849474725</v>
+      </c>
+      <c r="H81">
+        <v>-0.016195578256381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2691980835410816</v>
+        <v>0.2077164628595348</v>
       </c>
       <c r="C82">
-        <v>-0.2431023242225953</v>
+        <v>-0.2629340894801261</v>
       </c>
       <c r="D82">
-        <v>0.2186527179084527</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2268775225734394</v>
+      </c>
+      <c r="E82">
+        <v>0.009674550185827061</v>
+      </c>
+      <c r="F82">
+        <v>-0.03731371852820471</v>
+      </c>
+      <c r="G82">
+        <v>-0.07007157103738557</v>
+      </c>
+      <c r="H82">
+        <v>-0.01182742250508038</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02106787950452961</v>
+        <v>0.01229156393280005</v>
       </c>
       <c r="C83">
-        <v>-0.05722037874270934</v>
+        <v>-0.05583576105029946</v>
       </c>
       <c r="D83">
-        <v>-0.046478693954173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05364714857529597</v>
+      </c>
+      <c r="E83">
+        <v>-0.06033963008249565</v>
+      </c>
+      <c r="F83">
+        <v>-0.06697999339517881</v>
+      </c>
+      <c r="G83">
+        <v>-0.01661167824310865</v>
+      </c>
+      <c r="H83">
+        <v>0.03623839391853906</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0009412807779030293</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.005945468116096275</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01760074080088894</v>
+      </c>
+      <c r="E84">
+        <v>-0.01490348517138674</v>
+      </c>
+      <c r="F84">
+        <v>0.02061213746930582</v>
+      </c>
+      <c r="G84">
+        <v>-0.002500770101426238</v>
+      </c>
+      <c r="H84">
+        <v>-0.02246615655783788</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1693148855840794</v>
+        <v>0.1390124200921546</v>
       </c>
       <c r="C85">
-        <v>-0.1263224547231354</v>
+        <v>-0.158688401575057</v>
       </c>
       <c r="D85">
-        <v>0.05947560116475299</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08411816126405228</v>
+      </c>
+      <c r="E85">
+        <v>-0.006414181886933023</v>
+      </c>
+      <c r="F85">
+        <v>0.05417518069272039</v>
+      </c>
+      <c r="G85">
+        <v>0.06120315354988364</v>
+      </c>
+      <c r="H85">
+        <v>0.01326341416991972</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02473952077306225</v>
+        <v>0.02167235756022984</v>
       </c>
       <c r="C86">
-        <v>-0.03887356791923851</v>
+        <v>-0.03979507418822766</v>
       </c>
       <c r="D86">
-        <v>-0.1198455704282233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1205409410703157</v>
+      </c>
+      <c r="E86">
+        <v>-0.03116234585025946</v>
+      </c>
+      <c r="F86">
+        <v>-0.006243084597147136</v>
+      </c>
+      <c r="G86">
+        <v>-0.06002353135364877</v>
+      </c>
+      <c r="H86">
+        <v>0.0394283730791227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02777927417724042</v>
+        <v>0.03284293550214869</v>
       </c>
       <c r="C87">
-        <v>-0.02193251043217061</v>
+        <v>-0.0351763966055706</v>
       </c>
       <c r="D87">
-        <v>-0.1052818622178749</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1324439145811724</v>
+      </c>
+      <c r="E87">
+        <v>-0.06364202639916122</v>
+      </c>
+      <c r="F87">
+        <v>0.03263408012661237</v>
+      </c>
+      <c r="G87">
+        <v>0.0057719282445705</v>
+      </c>
+      <c r="H87">
+        <v>-0.05035498126091224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07166444424210817</v>
+        <v>0.05853522678573013</v>
       </c>
       <c r="C88">
-        <v>-0.04655426566324833</v>
+        <v>-0.06133811231965748</v>
       </c>
       <c r="D88">
-        <v>-0.03382312275268132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01194800198341112</v>
+      </c>
+      <c r="E88">
+        <v>-0.006352807449560444</v>
+      </c>
+      <c r="F88">
+        <v>0.02274388005177307</v>
+      </c>
+      <c r="G88">
+        <v>0.02191586051251459</v>
+      </c>
+      <c r="H88">
+        <v>-0.04937033608714053</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2680846577156683</v>
+        <v>0.324736370512931</v>
       </c>
       <c r="C89">
-        <v>0.3789982010171031</v>
+        <v>0.310326144959053</v>
       </c>
       <c r="D89">
-        <v>0.01417156290651468</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001314206919198204</v>
+      </c>
+      <c r="E89">
+        <v>-0.06431636755078608</v>
+      </c>
+      <c r="F89">
+        <v>-0.008415549194695183</v>
+      </c>
+      <c r="G89">
+        <v>0.06677775361287727</v>
+      </c>
+      <c r="H89">
+        <v>-0.1122763174422066</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2258862091264595</v>
+        <v>0.2667562591440777</v>
       </c>
       <c r="C90">
-        <v>0.2793562615388037</v>
+        <v>0.2211340726478843</v>
       </c>
       <c r="D90">
-        <v>-0.01239339045518811</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02972088996199946</v>
+      </c>
+      <c r="E90">
+        <v>-0.05222648634367898</v>
+      </c>
+      <c r="F90">
+        <v>9.006186987127502e-05</v>
+      </c>
+      <c r="G90">
+        <v>-0.0382216245572435</v>
+      </c>
+      <c r="H90">
+        <v>-0.04544451911167138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1706728162939947</v>
+        <v>0.1359818784634701</v>
       </c>
       <c r="C91">
-        <v>-0.1649647830065704</v>
+        <v>-0.1780428522943028</v>
       </c>
       <c r="D91">
-        <v>0.1286489083399386</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1210881282185121</v>
+      </c>
+      <c r="E91">
+        <v>-0.09199428896695559</v>
+      </c>
+      <c r="F91">
+        <v>0.06196955347738289</v>
+      </c>
+      <c r="G91">
+        <v>0.029609797050095</v>
+      </c>
+      <c r="H91">
+        <v>0.0512621116792591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1954154169299011</v>
+        <v>0.2554281529781635</v>
       </c>
       <c r="C92">
-        <v>0.2712148566848875</v>
+        <v>0.2426834151889616</v>
       </c>
       <c r="D92">
-        <v>-0.01131056040835067</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02789300334583418</v>
+      </c>
+      <c r="E92">
+        <v>-0.1092456983190813</v>
+      </c>
+      <c r="F92">
+        <v>0.01074893620789977</v>
+      </c>
+      <c r="G92">
+        <v>0.01694425470898305</v>
+      </c>
+      <c r="H92">
+        <v>-0.04208545846739476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2437525369746145</v>
+        <v>0.2809464037886598</v>
       </c>
       <c r="C93">
-        <v>0.2910904221157918</v>
+        <v>0.2312930382350184</v>
       </c>
       <c r="D93">
-        <v>-0.01739953855186205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005331479744949382</v>
+      </c>
+      <c r="E93">
+        <v>0.01276110336311047</v>
+      </c>
+      <c r="F93">
+        <v>0.03315511394331193</v>
+      </c>
+      <c r="G93">
+        <v>0.01347517340523873</v>
+      </c>
+      <c r="H93">
+        <v>0.001161042183050156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3329726850825392</v>
+        <v>0.2755707701191323</v>
       </c>
       <c r="C94">
-        <v>-0.2125543642062583</v>
+        <v>-0.2738127934657698</v>
       </c>
       <c r="D94">
-        <v>0.3847930692283344</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4067022470792228</v>
+      </c>
+      <c r="E94">
+        <v>-0.01238196152228088</v>
+      </c>
+      <c r="F94">
+        <v>-0.03791787014152399</v>
+      </c>
+      <c r="G94">
+        <v>-0.1928755864698259</v>
+      </c>
+      <c r="H94">
+        <v>-0.2983158742639037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07016752921065082</v>
+        <v>0.06340676215751945</v>
       </c>
       <c r="C95">
-        <v>-0.08195830017440181</v>
+        <v>-0.08990066127252699</v>
       </c>
       <c r="D95">
-        <v>-0.1227115872674336</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1033396658135796</v>
+      </c>
+      <c r="E95">
+        <v>-0.2297510472740595</v>
+      </c>
+      <c r="F95">
+        <v>-0.7129019877888273</v>
+      </c>
+      <c r="G95">
+        <v>0.4946681638181941</v>
+      </c>
+      <c r="H95">
+        <v>-0.2332727272834559</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0001221327650631543</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-2.661006943439541e-06</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.000257389629504043</v>
+      </c>
+      <c r="E97">
+        <v>-0.0002401087160258118</v>
+      </c>
+      <c r="F97">
+        <v>0.0003779534337629426</v>
+      </c>
+      <c r="G97">
+        <v>-0.0003311716550862981</v>
+      </c>
+      <c r="H97">
+        <v>0.0001428594311669036</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1752056340943484</v>
+        <v>0.1629180027188289</v>
       </c>
       <c r="C98">
-        <v>-0.05552519487645996</v>
+        <v>-0.09424674307781401</v>
       </c>
       <c r="D98">
-        <v>-0.1551607536809346</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1112690622450009</v>
+      </c>
+      <c r="E98">
+        <v>0.3243563908007543</v>
+      </c>
+      <c r="F98">
+        <v>-0.07436205289724182</v>
+      </c>
+      <c r="G98">
+        <v>0.006686187430072688</v>
+      </c>
+      <c r="H98">
+        <v>0.1369242537525629</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003828466982231585</v>
+        <v>0.00514494468308615</v>
       </c>
       <c r="C101">
-        <v>-0.02154580546222094</v>
+        <v>-0.02657257124194564</v>
       </c>
       <c r="D101">
-        <v>-0.08736913684220955</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09612557647269608</v>
+      </c>
+      <c r="E101">
+        <v>-0.01407961278488083</v>
+      </c>
+      <c r="F101">
+        <v>0.04532528398296692</v>
+      </c>
+      <c r="G101">
+        <v>0.012563906843706</v>
+      </c>
+      <c r="H101">
+        <v>-0.08556875311286562</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1252955704006919</v>
+        <v>0.09324389986944526</v>
       </c>
       <c r="C102">
-        <v>-0.1305373037531272</v>
+        <v>-0.1334181654795448</v>
       </c>
       <c r="D102">
-        <v>0.08489364540957796</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09275125345476574</v>
+      </c>
+      <c r="E102">
+        <v>-0.01737402586960666</v>
+      </c>
+      <c r="F102">
+        <v>-0.03441491120255855</v>
+      </c>
+      <c r="G102">
+        <v>-0.02611252489742441</v>
+      </c>
+      <c r="H102">
+        <v>0.002921364183395718</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
